--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>19 Apr -- 25 Apr 2020</t>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="H2">
-        <v>68.84999999999999</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="I2">
-        <v>1795.59</v>
+        <v>1828.75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -640,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -820,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -840,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -920,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -960,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,13 +1000,13 @@
         <v>733.14</v>
       </c>
       <c r="D22">
-        <v>978.48</v>
+        <v>733.14</v>
       </c>
       <c r="E22">
-        <v>245.34</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,13 +1020,13 @@
         <v>797.86</v>
       </c>
       <c r="D23">
-        <v>934.2</v>
+        <v>797.86</v>
       </c>
       <c r="E23">
-        <v>136.34</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,13 +1040,13 @@
         <v>766.4299999999999</v>
       </c>
       <c r="D24">
-        <v>984.49</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E24">
-        <v>218.06</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,13 +1060,13 @@
         <v>702.14</v>
       </c>
       <c r="D25">
-        <v>1009.87</v>
+        <v>702.14</v>
       </c>
       <c r="E25">
-        <v>307.73</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,13 +1080,13 @@
         <v>714.29</v>
       </c>
       <c r="D26">
-        <v>896.21</v>
+        <v>714.29</v>
       </c>
       <c r="E26">
-        <v>181.92</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,13 +1100,13 @@
         <v>717.4299999999999</v>
       </c>
       <c r="D27">
-        <v>886.42</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E27">
-        <v>168.99</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,13 +1120,13 @@
         <v>821.5700000000001</v>
       </c>
       <c r="D28">
-        <v>759.26</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E28">
-        <v>62.31</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,13 +1140,13 @@
         <v>819</v>
       </c>
       <c r="D29">
-        <v>799.73</v>
+        <v>819</v>
       </c>
       <c r="E29">
-        <v>19.27</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,13 +1160,13 @@
         <v>994.86</v>
       </c>
       <c r="D30">
-        <v>793.98</v>
+        <v>994.86</v>
       </c>
       <c r="E30">
-        <v>200.87</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,13 +1180,13 @@
         <v>1087.29</v>
       </c>
       <c r="D31">
-        <v>808.5700000000001</v>
+        <v>1087.29</v>
       </c>
       <c r="E31">
-        <v>278.71</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,16 +1200,16 @@
         <v>1466.29</v>
       </c>
       <c r="D32">
-        <v>834.84</v>
+        <v>1466.29</v>
       </c>
       <c r="E32">
-        <v>631.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1214,16 +1220,16 @@
         <v>1447.14</v>
       </c>
       <c r="D33">
-        <v>816.9</v>
+        <v>1447.14</v>
       </c>
       <c r="E33">
-        <v>630.24</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1234,16 +1240,16 @@
         <v>2150.29</v>
       </c>
       <c r="D34">
-        <v>843.76</v>
+        <v>1014.46</v>
       </c>
       <c r="E34">
-        <v>1306.53</v>
+        <v>1135.82</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1254,16 +1260,16 @@
         <v>2383.14</v>
       </c>
       <c r="D35">
-        <v>870.97</v>
+        <v>1085.67</v>
       </c>
       <c r="E35">
-        <v>1512.18</v>
+        <v>1297.47</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1274,16 +1280,16 @@
         <v>2607.86</v>
       </c>
       <c r="D36">
-        <v>812.27</v>
+        <v>1092.84</v>
       </c>
       <c r="E36">
-        <v>1795.59</v>
+        <v>1515.01</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1294,22 +1300,16 @@
         <v>2250</v>
       </c>
       <c r="D37">
-        <v>863.23</v>
+        <v>1113.11</v>
       </c>
       <c r="E37">
-        <v>1386.77</v>
+        <v>1136.89</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37">
-        <v>1386.77</v>
-      </c>
-      <c r="K37">
-        <v>61.63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1320,22 +1320,16 @@
         <v>2611</v>
       </c>
       <c r="D38">
-        <v>902.85</v>
+        <v>1222.63</v>
       </c>
       <c r="E38">
-        <v>1708.15</v>
+        <v>1388.37</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38">
-        <v>1547.46</v>
-      </c>
-      <c r="K38">
-        <v>63.53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1343,13 +1337,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>980.53</v>
+        <v>1166.69</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1357,13 +1351,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>1172.09</v>
+        <v>1232.76</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1371,13 +1365,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1327.61</v>
+        <v>1452.15</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1385,10 +1379,38 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1449.12</v>
+        <v>1623.51</v>
       </c>
       <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1643.16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1668.11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,18 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -539,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -597,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2">
-        <v>70.04000000000001</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="I2">
-        <v>1828.75</v>
+        <v>1795.59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -646,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -654,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -666,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -706,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -726,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -746,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -766,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -786,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -806,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -826,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -834,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -854,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -866,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -874,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -886,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -906,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -926,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -966,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -986,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,19 +1006,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>733.14</v>
       </c>
       <c r="D22">
-        <v>733.14</v>
+        <v>978.48</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,19 +1026,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>797.86</v>
       </c>
       <c r="D23">
-        <v>797.86</v>
+        <v>934.2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,19 +1046,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
       </c>
       <c r="D24">
-        <v>766.4299999999999</v>
+        <v>984.49</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>702.14</v>
       </c>
       <c r="D25">
-        <v>702.14</v>
+        <v>1009.87</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>714.29</v>
       </c>
       <c r="D26">
-        <v>714.29</v>
+        <v>896.21</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,19 +1106,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
       </c>
       <c r="D27">
-        <v>717.4299999999999</v>
+        <v>886.42</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,19 +1126,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
       </c>
       <c r="D28">
-        <v>821.5700000000001</v>
+        <v>759.26</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,19 +1146,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>819</v>
       </c>
       <c r="D29">
-        <v>819</v>
+        <v>799.73</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,19 +1166,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>994.86</v>
       </c>
       <c r="D30">
-        <v>994.86</v>
+        <v>793.98</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
       </c>
       <c r="D31">
-        <v>1087.29</v>
+        <v>808.5700000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,223 +1206,582 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
       </c>
       <c r="D32">
-        <v>1466.29</v>
+        <v>834.84</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
       </c>
       <c r="D33">
-        <v>1447.14</v>
+        <v>816.9</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
       </c>
       <c r="D34">
-        <v>1014.46</v>
+        <v>843.76</v>
       </c>
       <c r="E34">
-        <v>1135.82</v>
+        <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
       </c>
       <c r="D35">
-        <v>1085.67</v>
+        <v>870.97</v>
       </c>
       <c r="E35">
-        <v>1297.47</v>
+        <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
       </c>
       <c r="D36">
-        <v>1092.84</v>
+        <v>812.27</v>
       </c>
       <c r="E36">
-        <v>1515.01</v>
+        <v>1795.59</v>
       </c>
       <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2243.29</v>
+      </c>
+      <c r="D37">
+        <v>863.23</v>
+      </c>
+      <c r="E37">
+        <v>1380.06</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37">
+        <v>1380.06</v>
+      </c>
+      <c r="K37">
+        <v>61.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2604.14</v>
+      </c>
+      <c r="D38">
+        <v>902.85</v>
+      </c>
+      <c r="E38">
+        <v>1701.29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <v>1540.68</v>
+      </c>
+      <c r="K38">
+        <v>63.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>3174.14</v>
+      </c>
+      <c r="D39">
+        <v>980.53</v>
+      </c>
+      <c r="E39">
+        <v>2193.62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39">
+        <v>1758.32</v>
+      </c>
+      <c r="K39">
+        <v>65.31999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>3333.57</v>
+      </c>
+      <c r="D40">
+        <v>1172.09</v>
+      </c>
+      <c r="E40">
+        <v>2161.48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40">
+        <v>1859.11</v>
+      </c>
+      <c r="K40">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>1327.61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2250</v>
-      </c>
-      <c r="D37">
-        <v>1113.11</v>
-      </c>
-      <c r="E37">
-        <v>1136.89</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D42">
+        <v>1449.12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>2604.14</v>
+      </c>
+      <c r="D43">
+        <v>1186.64</v>
+      </c>
+      <c r="E43">
+        <v>1417.51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>0.83</v>
+      </c>
+      <c r="H43">
+        <v>56.39</v>
+      </c>
+      <c r="I43">
+        <v>1264.95</v>
+      </c>
+      <c r="J43">
+        <v>1770.79</v>
+      </c>
+      <c r="K43">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>3174.14</v>
+      </c>
+      <c r="D44">
+        <v>1083.34</v>
+      </c>
+      <c r="E44">
+        <v>2090.8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44">
+        <v>1824.13</v>
+      </c>
+      <c r="K44">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>3333.57</v>
+      </c>
+      <c r="D45">
+        <v>1115.74</v>
+      </c>
+      <c r="E45">
+        <v>2217.83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45">
+        <v>1880.37</v>
+      </c>
+      <c r="K45">
+        <v>63.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>1387.51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2611</v>
-      </c>
-      <c r="D38">
-        <v>1222.63</v>
-      </c>
-      <c r="E38">
-        <v>1388.37</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D47">
+        <v>1117.95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>916.12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>3174.14</v>
+      </c>
+      <c r="D49">
+        <v>1241.11</v>
+      </c>
+      <c r="E49">
+        <v>1933.04</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49">
+        <v>0.97</v>
+      </c>
+      <c r="H49">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="I49">
+        <v>1828.75</v>
+      </c>
+      <c r="J49">
+        <v>1886.95</v>
+      </c>
+      <c r="K49">
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>3333.57</v>
+      </c>
+      <c r="D50">
+        <v>1337.88</v>
+      </c>
+      <c r="E50">
+        <v>1995.69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50">
+        <v>1899.03</v>
+      </c>
+      <c r="K50">
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>1593.17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>1166.69</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D52">
+        <v>1629.06</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>1560.69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54">
+        <v>1687.35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>3333.57</v>
+      </c>
+      <c r="D55">
+        <v>1045.5</v>
+      </c>
+      <c r="E55">
+        <v>2288.07</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55">
+        <v>1.06</v>
+      </c>
+      <c r="H55">
+        <v>78.22</v>
+      </c>
+      <c r="I55">
+        <v>2482.74</v>
+      </c>
+      <c r="J55">
+        <v>1937.94</v>
+      </c>
+      <c r="K55">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>1124.3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>1232.76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1452.15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>1623.51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1643.16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>1668.11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
+      <c r="D57">
+        <v>1318.35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>920.03</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>1273.53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>1582.87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1784,6 +1784,111 @@
         <v>59</v>
       </c>
     </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>3333.57</v>
+      </c>
+      <c r="D61">
+        <v>950.58</v>
+      </c>
+      <c r="E61">
+        <v>2382.99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>0.95</v>
+      </c>
+      <c r="H61">
+        <v>70.72</v>
+      </c>
+      <c r="I61">
+        <v>2244.84</v>
+      </c>
+      <c r="J61">
+        <v>1978.4</v>
+      </c>
+      <c r="K61">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>1012.57</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>1156.95</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>984.3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>939.91</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>1329.15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.9399999999999999</v>
@@ -626,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>733.14</v>
@@ -1018,7 +1024,7 @@
         <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>797.86</v>
@@ -1038,7 +1044,7 @@
         <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
@@ -1058,7 +1064,7 @@
         <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>702.14</v>
@@ -1078,7 +1084,7 @@
         <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>714.29</v>
@@ -1098,7 +1104,7 @@
         <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
@@ -1118,7 +1124,7 @@
         <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
@@ -1138,7 +1144,7 @@
         <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>819</v>
@@ -1158,7 +1164,7 @@
         <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>994.86</v>
@@ -1178,7 +1184,7 @@
         <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
@@ -1198,7 +1204,7 @@
         <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
@@ -1218,7 +1224,7 @@
         <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
@@ -1238,7 +1244,7 @@
         <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
@@ -1258,7 +1264,7 @@
         <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
@@ -1278,7 +1284,7 @@
         <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
@@ -1298,7 +1304,7 @@
         <v>1795.59</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,25 +1312,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D37">
         <v>863.23</v>
       </c>
       <c r="E37">
-        <v>1380.06</v>
+        <v>1378.63</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J37">
-        <v>1380.06</v>
+        <v>1378.63</v>
       </c>
       <c r="K37">
-        <v>61.52</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,25 +1338,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D38">
         <v>902.85</v>
       </c>
       <c r="E38">
-        <v>1701.29</v>
+        <v>1701.58</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J38">
-        <v>1540.68</v>
+        <v>1540.11</v>
       </c>
       <c r="K38">
-        <v>63.42</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,25 +1364,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D39">
         <v>980.53</v>
       </c>
       <c r="E39">
-        <v>2193.62</v>
+        <v>2192.33</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J39">
-        <v>1758.32</v>
+        <v>1757.51</v>
       </c>
       <c r="K39">
-        <v>65.31999999999999</v>
+        <v>65.31</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>3333.57</v>
@@ -1396,13 +1402,13 @@
         <v>2161.48</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J40">
-        <v>1859.11</v>
+        <v>1858.51</v>
       </c>
       <c r="K40">
-        <v>65.2</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,13 +1416,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>1327.61</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,13 +1430,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1449.12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,19 +1444,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D43">
         <v>1186.64</v>
       </c>
       <c r="E43">
-        <v>1417.51</v>
+        <v>1417.79</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0.83</v>
@@ -1462,10 +1468,10 @@
         <v>1264.95</v>
       </c>
       <c r="J43">
-        <v>1770.79</v>
+        <v>1770.36</v>
       </c>
       <c r="K43">
-        <v>63.05</v>
+        <v>63.04</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D44">
         <v>1083.34</v>
       </c>
       <c r="E44">
-        <v>2090.8</v>
+        <v>2089.51</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J44">
-        <v>1824.13</v>
+        <v>1823.55</v>
       </c>
       <c r="K44">
-        <v>63.52</v>
+        <v>63.51</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1499,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>3333.57</v>
@@ -1511,13 +1517,13 @@
         <v>2217.83</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J45">
-        <v>1880.37</v>
+        <v>1879.88</v>
       </c>
       <c r="K45">
-        <v>63.95</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1525,13 +1531,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>1387.51</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1539,13 +1545,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>1117.95</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1553,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>916.12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1567,19 +1573,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D49">
         <v>1241.11</v>
       </c>
       <c r="E49">
-        <v>1933.04</v>
+        <v>1931.75</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G49">
         <v>0.97</v>
@@ -1591,10 +1597,10 @@
         <v>1828.75</v>
       </c>
       <c r="J49">
-        <v>1886.95</v>
+        <v>1886.36</v>
       </c>
       <c r="K49">
-        <v>63.57</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1602,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1614,13 +1620,13 @@
         <v>1995.69</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J50">
-        <v>1899.03</v>
+        <v>1898.51</v>
       </c>
       <c r="K50">
-        <v>63.16</v>
+        <v>63.15</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1628,13 +1634,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>1593.17</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1642,13 +1648,13 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>1629.06</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1656,13 +1662,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>1560.69</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1670,13 +1676,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <v>1687.35</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1684,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>3333.57</v>
@@ -1696,7 +1702,7 @@
         <v>2288.07</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>1.06</v>
@@ -1708,7 +1714,7 @@
         <v>2482.74</v>
       </c>
       <c r="J55">
-        <v>1937.94</v>
+        <v>1937.47</v>
       </c>
       <c r="K55">
         <v>63.7</v>
@@ -1719,13 +1725,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56">
         <v>1124.3</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1733,13 +1739,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>1318.35</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1747,13 +1753,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>920.03</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1761,13 +1767,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59">
         <v>1273.53</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1775,13 +1781,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <v>1582.87</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1789,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>3333.57</v>
@@ -1801,7 +1807,7 @@
         <v>2382.99</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G61">
         <v>0.95</v>
@@ -1813,7 +1819,7 @@
         <v>2244.84</v>
       </c>
       <c r="J61">
-        <v>1978.4</v>
+        <v>1977.97</v>
       </c>
       <c r="K61">
         <v>64.41</v>
@@ -1824,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <v>1012.57</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1838,13 +1844,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D63">
         <v>1156.95</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1852,41 +1858,134 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <v>984.3</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>939.91</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66">
         <v>1329.15</v>
       </c>
       <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>1145.25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67">
+        <v>0.89</v>
+      </c>
+      <c r="H67">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="I67">
+        <v>2243.13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>1013.65</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>1153.55</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>1210.82</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
         <v>59</v>
+      </c>
+      <c r="D71">
+        <v>1205.47</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>1550.35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.9399999999999999</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>733.14</v>
@@ -1024,7 +1030,7 @@
         <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>797.86</v>
@@ -1044,7 +1050,7 @@
         <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
@@ -1064,7 +1070,7 @@
         <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>702.14</v>
@@ -1084,7 +1090,7 @@
         <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>714.29</v>
@@ -1104,7 +1110,7 @@
         <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
@@ -1124,7 +1130,7 @@
         <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
@@ -1144,7 +1150,7 @@
         <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>819</v>
@@ -1164,7 +1170,7 @@
         <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>994.86</v>
@@ -1184,7 +1190,7 @@
         <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
@@ -1204,7 +1210,7 @@
         <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
@@ -1224,7 +1230,7 @@
         <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
@@ -1244,7 +1250,7 @@
         <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
@@ -1264,7 +1270,7 @@
         <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
@@ -1284,7 +1290,7 @@
         <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
@@ -1304,7 +1310,7 @@
         <v>1795.59</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>2241.86</v>
@@ -1324,7 +1330,7 @@
         <v>1378.63</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J37">
         <v>1378.63</v>
@@ -1338,25 +1344,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D38">
         <v>902.85</v>
       </c>
       <c r="E38">
-        <v>1701.58</v>
+        <v>1702.15</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J38">
-        <v>1540.11</v>
+        <v>1540.39</v>
       </c>
       <c r="K38">
-        <v>63.41</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,25 +1370,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D39">
         <v>980.53</v>
       </c>
       <c r="E39">
-        <v>2192.33</v>
+        <v>2193.76</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J39">
-        <v>1757.51</v>
+        <v>1758.18</v>
       </c>
       <c r="K39">
-        <v>65.31</v>
+        <v>65.31999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,25 +1396,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D40">
         <v>1172.09</v>
       </c>
       <c r="E40">
-        <v>2161.48</v>
+        <v>2163.19</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J40">
-        <v>1858.51</v>
+        <v>1859.43</v>
       </c>
       <c r="K40">
-        <v>65.19</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1416,13 +1422,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>3085.57</v>
       </c>
       <c r="D41">
         <v>1327.61</v>
       </c>
+      <c r="E41">
+        <v>1757.97</v>
+      </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>1839.14</v>
+      </c>
+      <c r="K41">
+        <v>63.56</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,13 +1448,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>3141</v>
       </c>
       <c r="D42">
         <v>1449.12</v>
       </c>
+      <c r="E42">
+        <v>1691.88</v>
+      </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J42">
+        <v>1814.6</v>
+      </c>
+      <c r="K42">
+        <v>61.94</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,19 +1474,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D43">
         <v>1186.64</v>
       </c>
       <c r="E43">
-        <v>1417.79</v>
+        <v>1418.36</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43">
         <v>0.83</v>
@@ -1468,10 +1498,10 @@
         <v>1264.95</v>
       </c>
       <c r="J43">
-        <v>1770.36</v>
+        <v>1757.99</v>
       </c>
       <c r="K43">
-        <v>63.04</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,25 +1509,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D44">
         <v>1083.34</v>
       </c>
       <c r="E44">
-        <v>2089.51</v>
+        <v>2090.94</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
-        <v>1823.55</v>
+        <v>1799.61</v>
       </c>
       <c r="K44">
-        <v>63.51</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1505,25 +1535,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D45">
         <v>1115.74</v>
       </c>
       <c r="E45">
-        <v>2217.83</v>
+        <v>2219.54</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45">
-        <v>1879.88</v>
+        <v>1846.27</v>
       </c>
       <c r="K45">
-        <v>63.94</v>
+        <v>62.06</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1531,13 +1561,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>3085.57</v>
       </c>
       <c r="D46">
         <v>1387.51</v>
       </c>
+      <c r="E46">
+        <v>1698.06</v>
+      </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>1831.45</v>
+      </c>
+      <c r="K46">
+        <v>61.35</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1545,13 +1587,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>3141</v>
       </c>
       <c r="D47">
         <v>1117.95</v>
       </c>
+      <c r="E47">
+        <v>2023.05</v>
+      </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>1848.87</v>
+      </c>
+      <c r="K47">
+        <v>61.63</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1559,13 +1613,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>916.12</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1573,19 +1627,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D49">
         <v>1241.11</v>
       </c>
       <c r="E49">
-        <v>1931.75</v>
+        <v>1933.18</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G49">
         <v>0.97</v>
@@ -1597,10 +1651,10 @@
         <v>1828.75</v>
       </c>
       <c r="J49">
-        <v>1886.36</v>
+        <v>1855.89</v>
       </c>
       <c r="K49">
-        <v>63.56</v>
+        <v>61.57</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1608,25 +1662,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D50">
         <v>1337.88</v>
       </c>
       <c r="E50">
-        <v>1995.69</v>
+        <v>1997.4</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J50">
-        <v>1898.51</v>
+        <v>1866.78</v>
       </c>
       <c r="K50">
-        <v>63.15</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1634,13 +1688,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>3085.57</v>
       </c>
       <c r="D51">
         <v>1593.17</v>
       </c>
+      <c r="E51">
+        <v>1492.4</v>
+      </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J51">
+        <v>1840.04</v>
+      </c>
+      <c r="K51">
+        <v>60.51</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1648,13 +1714,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>3141</v>
       </c>
       <c r="D52">
         <v>1629.06</v>
       </c>
+      <c r="E52">
+        <v>1511.94</v>
+      </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J52">
+        <v>1818.16</v>
+      </c>
+      <c r="K52">
+        <v>59.68</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1662,13 +1740,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>1560.69</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1676,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>1687.35</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1690,19 +1768,19 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D55">
         <v>1045.5</v>
       </c>
       <c r="E55">
-        <v>2288.07</v>
+        <v>2289.79</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>1.06</v>
@@ -1714,10 +1792,10 @@
         <v>2482.74</v>
       </c>
       <c r="J55">
-        <v>1937.47</v>
+        <v>1847.64</v>
       </c>
       <c r="K55">
-        <v>63.7</v>
+        <v>60.24</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1725,13 +1803,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>3085.57</v>
       </c>
       <c r="D56">
         <v>1124.3</v>
       </c>
+      <c r="E56">
+        <v>1961.28</v>
+      </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J56">
+        <v>1854.32</v>
+      </c>
+      <c r="K56">
+        <v>60.44</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1739,13 +1829,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>3141</v>
       </c>
       <c r="D57">
         <v>1318.35</v>
       </c>
+      <c r="E57">
+        <v>1822.65</v>
+      </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J57">
+        <v>1852.57</v>
+      </c>
+      <c r="K57">
+        <v>60.3</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1753,13 +1855,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>920.03</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1767,13 +1869,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>1273.53</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1781,13 +1883,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>1582.87</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1795,19 +1897,19 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D61">
         <v>950.58</v>
       </c>
       <c r="E61">
-        <v>2382.99</v>
+        <v>2384.7</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G61">
         <v>0.95</v>
@@ -1819,10 +1921,10 @@
         <v>2244.84</v>
       </c>
       <c r="J61">
-        <v>1977.97</v>
+        <v>1880.57</v>
       </c>
       <c r="K61">
-        <v>64.41</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1830,13 +1932,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>3085.57</v>
       </c>
       <c r="D62">
         <v>1012.57</v>
       </c>
+      <c r="E62">
+        <v>2073</v>
+      </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J62">
+        <v>1890.19</v>
+      </c>
+      <c r="K62">
+        <v>61.21</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1844,13 +1958,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>3141</v>
       </c>
       <c r="D63">
         <v>1156.95</v>
       </c>
+      <c r="E63">
+        <v>1984.05</v>
+      </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J63">
+        <v>1894.66</v>
+      </c>
+      <c r="K63">
+        <v>61.3</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1858,55 +1984,61 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <v>984.3</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65">
         <v>939.91</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66">
         <v>1329.15</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>3085.57</v>
       </c>
       <c r="D67">
         <v>1145.25</v>
       </c>
+      <c r="E67">
+        <v>1940.32</v>
+      </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G67">
         <v>0.89</v>
@@ -1917,75 +2049,315 @@
       <c r="I67">
         <v>2243.13</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>1896.74</v>
+      </c>
+      <c r="K67">
+        <v>61.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>3141</v>
       </c>
       <c r="D68">
         <v>1013.65</v>
       </c>
+      <c r="E68">
+        <v>2127.35</v>
+      </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J68">
+        <v>1906.77</v>
+      </c>
+      <c r="K68">
+        <v>61.65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69">
         <v>1153.55</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <v>1210.82</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>1205.47</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72">
         <v>1550.35</v>
       </c>
       <c r="F72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>3085.57</v>
+      </c>
+      <c r="D73">
+        <v>1263.06</v>
+      </c>
+      <c r="E73">
+        <v>1822.51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73">
+        <v>0.75</v>
+      </c>
+      <c r="H73">
+        <v>56.82</v>
+      </c>
+      <c r="I73">
+        <v>1894.29</v>
+      </c>
+      <c r="J73">
+        <v>1903.25</v>
+      </c>
+      <c r="K73">
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74">
+        <v>3141</v>
+      </c>
+      <c r="D74">
+        <v>1291.16</v>
+      </c>
+      <c r="E74">
+        <v>1849.84</v>
+      </c>
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74">
+        <v>1901.12</v>
+      </c>
+      <c r="K74">
+        <v>61.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75">
+        <v>1246.13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76">
+        <v>1053.47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77">
+        <v>1175.38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
         <v>61</v>
+      </c>
+      <c r="D78">
+        <v>1286.14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79">
+        <v>3141</v>
+      </c>
+      <c r="D79">
+        <v>1454.29</v>
+      </c>
+      <c r="E79">
+        <v>1686.71</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79">
+        <v>0.78</v>
+      </c>
+      <c r="H79">
+        <v>52.82</v>
+      </c>
+      <c r="I79">
+        <v>1629.76</v>
+      </c>
+      <c r="J79">
+        <v>1892.87</v>
+      </c>
+      <c r="K79">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80">
+        <v>1345.51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81">
+        <v>1456.01</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82">
+        <v>1871.51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>1924.77</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84">
+        <v>2188.5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.9399999999999999</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>733.14</v>
@@ -1030,7 +1036,7 @@
         <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>797.86</v>
@@ -1050,7 +1056,7 @@
         <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
@@ -1070,7 +1076,7 @@
         <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>702.14</v>
@@ -1090,7 +1096,7 @@
         <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>714.29</v>
@@ -1110,7 +1116,7 @@
         <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
@@ -1130,7 +1136,7 @@
         <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
@@ -1150,7 +1156,7 @@
         <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>819</v>
@@ -1170,7 +1176,7 @@
         <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>994.86</v>
@@ -1190,7 +1196,7 @@
         <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
@@ -1210,7 +1216,7 @@
         <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
@@ -1230,7 +1236,7 @@
         <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
@@ -1250,7 +1256,7 @@
         <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
@@ -1270,7 +1276,7 @@
         <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
@@ -1290,7 +1296,7 @@
         <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
@@ -1310,7 +1316,7 @@
         <v>1795.59</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1324,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2241.86</v>
@@ -1330,7 +1336,7 @@
         <v>1378.63</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J37">
         <v>1378.63</v>
@@ -1344,22 +1350,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D38">
         <v>902.85</v>
       </c>
       <c r="E38">
-        <v>1702.15</v>
+        <v>1702.58</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J38">
-        <v>1540.39</v>
+        <v>1540.61</v>
       </c>
       <c r="K38">
         <v>63.42</v>
@@ -1370,19 +1376,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D39">
         <v>980.53</v>
       </c>
       <c r="E39">
-        <v>2193.76</v>
+        <v>2193.33</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J39">
         <v>1758.18</v>
@@ -1396,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>3335.29</v>
@@ -1408,7 +1414,7 @@
         <v>2163.19</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J40">
         <v>1859.43</v>
@@ -1422,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>3085.57</v>
@@ -1434,7 +1440,7 @@
         <v>1757.97</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J41">
         <v>1839.14</v>
@@ -1448,25 +1454,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D42">
         <v>1449.12</v>
       </c>
       <c r="E42">
-        <v>1691.88</v>
+        <v>1701.45</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J42">
-        <v>1814.6</v>
+        <v>1816.19</v>
       </c>
       <c r="K42">
-        <v>61.94</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1474,19 +1480,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D43">
         <v>1186.64</v>
       </c>
       <c r="E43">
-        <v>1418.36</v>
+        <v>1418.79</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G43">
         <v>0.83</v>
@@ -1498,10 +1504,10 @@
         <v>1264.95</v>
       </c>
       <c r="J43">
-        <v>1757.99</v>
+        <v>1759.42</v>
       </c>
       <c r="K43">
-        <v>60.87</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1509,25 +1515,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D44">
         <v>1083.34</v>
       </c>
       <c r="E44">
-        <v>2090.94</v>
+        <v>2090.51</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44">
-        <v>1799.61</v>
+        <v>1800.81</v>
       </c>
       <c r="K44">
-        <v>61.5</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1535,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>3335.29</v>
@@ -1547,13 +1553,13 @@
         <v>2219.54</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J45">
-        <v>1846.27</v>
+        <v>1847.33</v>
       </c>
       <c r="K45">
-        <v>62.06</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1561,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>3085.57</v>
@@ -1573,13 +1579,13 @@
         <v>1698.06</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46">
-        <v>1831.45</v>
+        <v>1832.41</v>
       </c>
       <c r="K46">
-        <v>61.35</v>
+        <v>61.37</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1587,25 +1593,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D47">
         <v>1117.95</v>
       </c>
       <c r="E47">
-        <v>2023.05</v>
+        <v>2032.62</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J47">
-        <v>1848.87</v>
+        <v>1850.61</v>
       </c>
       <c r="K47">
-        <v>61.63</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1613,13 +1619,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>916.12</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1627,19 +1633,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D49">
         <v>1241.11</v>
       </c>
       <c r="E49">
-        <v>1933.18</v>
+        <v>1932.75</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G49">
         <v>0.97</v>
@@ -1651,10 +1657,10 @@
         <v>1828.75</v>
       </c>
       <c r="J49">
-        <v>1855.89</v>
+        <v>1857.45</v>
       </c>
       <c r="K49">
-        <v>61.57</v>
+        <v>61.59</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1662,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>3335.29</v>
@@ -1674,13 +1680,13 @@
         <v>1997.4</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J50">
-        <v>1866.78</v>
+        <v>1868.22</v>
       </c>
       <c r="K50">
-        <v>61.44</v>
+        <v>61.46</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1688,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1700,13 +1706,13 @@
         <v>1492.4</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J51">
-        <v>1840.04</v>
+        <v>1841.37</v>
       </c>
       <c r="K51">
-        <v>60.51</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1714,25 +1720,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D52">
         <v>1629.06</v>
       </c>
       <c r="E52">
-        <v>1511.94</v>
+        <v>1521.51</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J52">
-        <v>1818.16</v>
+        <v>1820.05</v>
       </c>
       <c r="K52">
-        <v>59.68</v>
+        <v>59.71</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1740,13 +1746,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>1560.69</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1754,13 +1760,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>1687.35</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1768,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>3335.29</v>
@@ -1780,7 +1786,7 @@
         <v>2289.79</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G55">
         <v>1.06</v>
@@ -1792,10 +1798,10 @@
         <v>2482.74</v>
       </c>
       <c r="J55">
-        <v>1847.64</v>
+        <v>1849.41</v>
       </c>
       <c r="K55">
-        <v>60.24</v>
+        <v>60.27</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1803,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1815,13 +1821,13 @@
         <v>1961.28</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J56">
-        <v>1854.32</v>
+        <v>1855.99</v>
       </c>
       <c r="K56">
-        <v>60.44</v>
+        <v>60.46</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1829,25 +1835,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D57">
         <v>1318.35</v>
       </c>
       <c r="E57">
-        <v>1822.65</v>
+        <v>1832.22</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J57">
-        <v>1852.57</v>
+        <v>1854.67</v>
       </c>
       <c r="K57">
-        <v>60.3</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1855,13 +1861,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>920.03</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1869,13 +1875,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>1273.53</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1883,13 +1889,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <v>1582.87</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1897,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>3335.29</v>
@@ -1909,7 +1915,7 @@
         <v>2384.7</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G61">
         <v>0.95</v>
@@ -1921,10 +1927,10 @@
         <v>2244.84</v>
       </c>
       <c r="J61">
-        <v>1880.57</v>
+        <v>1882.56</v>
       </c>
       <c r="K61">
-        <v>60.89</v>
+        <v>60.92</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1932,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>3085.57</v>
@@ -1944,13 +1950,13 @@
         <v>2073</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J62">
-        <v>1890.19</v>
+        <v>1892.09</v>
       </c>
       <c r="K62">
-        <v>61.21</v>
+        <v>61.23</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1958,25 +1964,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D63">
         <v>1156.95</v>
       </c>
       <c r="E63">
-        <v>1984.05</v>
+        <v>1993.62</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J63">
-        <v>1894.66</v>
+        <v>1896.92</v>
       </c>
       <c r="K63">
-        <v>61.3</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1984,13 +1990,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>984.3</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1998,13 +2004,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>939.91</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2012,13 +2018,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66">
         <v>1329.15</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2026,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67">
         <v>3085.57</v>
@@ -2038,7 +2044,7 @@
         <v>1940.32</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G67">
         <v>0.89</v>
@@ -2050,10 +2056,10 @@
         <v>2243.13</v>
       </c>
       <c r="J67">
-        <v>1896.74</v>
+        <v>1898.89</v>
       </c>
       <c r="K67">
-        <v>61.37</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2061,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D68">
         <v>1013.65</v>
       </c>
       <c r="E68">
-        <v>2127.35</v>
+        <v>2136.92</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J68">
-        <v>1906.77</v>
+        <v>1909.24</v>
       </c>
       <c r="K68">
-        <v>61.65</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2087,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>1153.55</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2101,13 +2107,13 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>1210.82</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2115,13 +2121,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>1205.47</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2129,13 +2135,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>1550.35</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2143,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73">
         <v>3085.57</v>
@@ -2155,7 +2161,7 @@
         <v>1822.51</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G73">
         <v>0.75</v>
@@ -2167,10 +2173,10 @@
         <v>1894.29</v>
       </c>
       <c r="J73">
-        <v>1903.25</v>
+        <v>1905.63</v>
       </c>
       <c r="K73">
-        <v>61.54</v>
+        <v>61.57</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2178,25 +2184,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D74">
         <v>1291.16</v>
       </c>
       <c r="E74">
-        <v>1849.84</v>
+        <v>1859.41</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J74">
-        <v>1901.12</v>
+        <v>1903.78</v>
       </c>
       <c r="K74">
-        <v>61.44</v>
+        <v>61.47</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2204,13 +2210,13 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>1246.13</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2218,13 +2224,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <v>1053.47</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2232,13 +2238,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77">
         <v>1175.38</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2246,13 +2252,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D78">
         <v>1286.14</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2260,19 +2266,19 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D79">
         <v>1454.29</v>
       </c>
       <c r="E79">
-        <v>1686.71</v>
+        <v>1696.28</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G79">
         <v>0.78</v>
@@ -2284,10 +2290,10 @@
         <v>1629.76</v>
       </c>
       <c r="J79">
-        <v>1892.87</v>
+        <v>1895.8</v>
       </c>
       <c r="K79">
-        <v>61.14</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2295,69 +2301,267 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80">
         <v>1345.51</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81">
         <v>1456.01</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D82">
         <v>1871.51</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>1924.77</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D84">
         <v>2188.5</v>
       </c>
       <c r="F84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85">
+        <v>3150.57</v>
+      </c>
+      <c r="D85">
+        <v>1515.81</v>
+      </c>
+      <c r="E85">
+        <v>1634.76</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85">
+        <v>1.03</v>
+      </c>
+      <c r="H85">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="I85">
+        <v>2154.49</v>
+      </c>
+      <c r="J85">
+        <v>1886.13</v>
+      </c>
+      <c r="K85">
+        <v>60.83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86">
+        <v>1431.6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>1527.24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88">
+        <v>2023.69</v>
+      </c>
+      <c r="F88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89">
+        <v>2385.4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
         <v>63</v>
+      </c>
+      <c r="D90">
+        <v>2067.4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91">
+        <v>1071.44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>65.22</v>
+      </c>
+      <c r="I91">
+        <v>2054.83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <v>1114.67</v>
+      </c>
+      <c r="F92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93">
+        <v>1468.99</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94">
+        <v>1434.28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95">
+        <v>1634.9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96">
+        <v>1966.02</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.9399999999999999</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>733.14</v>
@@ -1036,7 +1042,7 @@
         <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>797.86</v>
@@ -1056,7 +1062,7 @@
         <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
@@ -1076,7 +1082,7 @@
         <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>702.14</v>
@@ -1096,7 +1102,7 @@
         <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>714.29</v>
@@ -1116,7 +1122,7 @@
         <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
@@ -1136,7 +1142,7 @@
         <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
@@ -1156,7 +1162,7 @@
         <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>819</v>
@@ -1176,7 +1182,7 @@
         <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>994.86</v>
@@ -1196,7 +1202,7 @@
         <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
@@ -1216,7 +1222,7 @@
         <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
@@ -1236,7 +1242,7 @@
         <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
@@ -1256,7 +1262,7 @@
         <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
@@ -1276,7 +1282,7 @@
         <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
@@ -1296,7 +1302,7 @@
         <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
@@ -1316,7 +1322,7 @@
         <v>1795.59</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>2241.86</v>
@@ -1336,7 +1342,7 @@
         <v>1378.63</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J37">
         <v>1378.63</v>
@@ -1350,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2605.43</v>
@@ -1362,7 +1368,7 @@
         <v>1702.58</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J38">
         <v>1540.61</v>
@@ -1376,25 +1382,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D39">
         <v>980.53</v>
       </c>
       <c r="E39">
-        <v>2193.33</v>
+        <v>2167.62</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J39">
-        <v>1758.18</v>
+        <v>1749.61</v>
       </c>
       <c r="K39">
-        <v>65.31999999999999</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1402,25 +1408,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D40">
         <v>1172.09</v>
       </c>
       <c r="E40">
-        <v>2163.19</v>
+        <v>2162.19</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J40">
-        <v>1859.43</v>
+        <v>1852.76</v>
       </c>
       <c r="K40">
-        <v>65.2</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1428,25 +1434,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D41">
         <v>1327.61</v>
       </c>
       <c r="E41">
-        <v>1757.97</v>
+        <v>1731.39</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J41">
-        <v>1839.14</v>
+        <v>1828.48</v>
       </c>
       <c r="K41">
-        <v>63.56</v>
+        <v>63.43</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1454,25 +1460,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D42">
         <v>1449.12</v>
       </c>
       <c r="E42">
-        <v>1701.45</v>
+        <v>1681.16</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J42">
-        <v>1816.19</v>
+        <v>1803.93</v>
       </c>
       <c r="K42">
-        <v>61.96</v>
+        <v>61.81</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1480,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>2605.43</v>
@@ -1492,7 +1498,7 @@
         <v>1418.79</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>0.83</v>
@@ -1504,10 +1510,10 @@
         <v>1264.95</v>
       </c>
       <c r="J43">
-        <v>1759.42</v>
+        <v>1748.91</v>
       </c>
       <c r="K43">
-        <v>60.89</v>
+        <v>60.76</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1515,25 +1521,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D44">
         <v>1083.34</v>
       </c>
       <c r="E44">
-        <v>2090.51</v>
+        <v>2064.8</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
-        <v>1800.81</v>
+        <v>1788.4</v>
       </c>
       <c r="K44">
-        <v>61.51</v>
+        <v>61.36</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1541,25 +1547,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D45">
         <v>1115.74</v>
       </c>
       <c r="E45">
-        <v>2219.54</v>
+        <v>2218.54</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
-        <v>1847.33</v>
+        <v>1836.19</v>
       </c>
       <c r="K45">
-        <v>62.07</v>
+        <v>61.94</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1567,25 +1573,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D46">
         <v>1387.51</v>
       </c>
       <c r="E46">
-        <v>1698.06</v>
+        <v>1671.49</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
-        <v>1832.41</v>
+        <v>1819.72</v>
       </c>
       <c r="K46">
-        <v>61.37</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1593,25 +1599,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D47">
         <v>1117.95</v>
       </c>
       <c r="E47">
-        <v>2032.62</v>
+        <v>2012.34</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J47">
-        <v>1850.61</v>
+        <v>1837.23</v>
       </c>
       <c r="K47">
-        <v>61.65</v>
+        <v>61.49</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1619,13 +1625,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>2986.71</v>
       </c>
       <c r="D48">
         <v>916.12</v>
       </c>
+      <c r="E48">
+        <v>2070.59</v>
+      </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J48">
+        <v>1856.68</v>
+      </c>
+      <c r="K48">
+        <v>62.14</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1633,19 +1651,19 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D49">
         <v>1241.11</v>
       </c>
       <c r="E49">
-        <v>1932.75</v>
+        <v>1907.04</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G49">
         <v>0.97</v>
@@ -1657,10 +1675,10 @@
         <v>1828.75</v>
       </c>
       <c r="J49">
-        <v>1857.45</v>
+        <v>1860.55</v>
       </c>
       <c r="K49">
-        <v>61.59</v>
+        <v>62.02</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1668,25 +1686,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D50">
         <v>1337.88</v>
       </c>
       <c r="E50">
-        <v>1997.4</v>
+        <v>1996.4</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50">
-        <v>1868.22</v>
+        <v>1870.25</v>
       </c>
       <c r="K50">
-        <v>61.46</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1694,25 +1712,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D51">
         <v>1593.17</v>
       </c>
       <c r="E51">
-        <v>1492.4</v>
+        <v>1465.83</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>1841.37</v>
+        <v>1843.29</v>
       </c>
       <c r="K51">
-        <v>60.53</v>
+        <v>60.94</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1720,25 +1738,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D52">
         <v>1629.06</v>
       </c>
       <c r="E52">
-        <v>1521.51</v>
+        <v>1501.23</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J52">
-        <v>1820.05</v>
+        <v>1821.91</v>
       </c>
       <c r="K52">
-        <v>59.71</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1746,13 +1764,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>2986.71</v>
       </c>
       <c r="D53">
         <v>1560.69</v>
       </c>
+      <c r="E53">
+        <v>1426.02</v>
+      </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J53">
+        <v>1798.63</v>
+      </c>
+      <c r="K53">
+        <v>59.4</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1760,13 +1790,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>2487.29</v>
       </c>
       <c r="D54">
         <v>1687.35</v>
       </c>
+      <c r="E54">
+        <v>799.9299999999999</v>
+      </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J54">
+        <v>1743.14</v>
+      </c>
+      <c r="K54">
+        <v>57.88</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1774,19 +1816,19 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D55">
         <v>1045.5</v>
       </c>
       <c r="E55">
-        <v>2289.79</v>
+        <v>2288.79</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <v>1.06</v>
@@ -1798,10 +1840,10 @@
         <v>2482.74</v>
       </c>
       <c r="J55">
-        <v>1849.41</v>
+        <v>1771.86</v>
       </c>
       <c r="K55">
-        <v>60.27</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1809,25 +1851,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D56">
         <v>1124.3</v>
       </c>
       <c r="E56">
-        <v>1961.28</v>
+        <v>1934.7</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J56">
-        <v>1855.99</v>
+        <v>1780</v>
       </c>
       <c r="K56">
-        <v>60.46</v>
+        <v>58.69</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1835,25 +1877,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D57">
         <v>1318.35</v>
       </c>
       <c r="E57">
-        <v>1832.22</v>
+        <v>1811.94</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J57">
-        <v>1854.67</v>
+        <v>1781.52</v>
       </c>
       <c r="K57">
-        <v>60.33</v>
+        <v>58.65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1861,13 +1903,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>2986.71</v>
       </c>
       <c r="D58">
         <v>920.03</v>
       </c>
+      <c r="E58">
+        <v>2066.69</v>
+      </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J58">
+        <v>1794.49</v>
+      </c>
+      <c r="K58">
+        <v>59.13</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1875,13 +1929,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>2487.29</v>
       </c>
       <c r="D59">
         <v>1273.53</v>
       </c>
+      <c r="E59">
+        <v>1213.76</v>
+      </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J59">
+        <v>1769.24</v>
+      </c>
+      <c r="K59">
+        <v>58.68</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1889,13 +1955,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>1906.71</v>
       </c>
       <c r="D60">
         <v>1582.87</v>
       </c>
+      <c r="E60">
+        <v>323.84</v>
+      </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>1709.01</v>
+      </c>
+      <c r="K60">
+        <v>56.94</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1903,19 +1981,19 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D61">
         <v>950.58</v>
       </c>
       <c r="E61">
-        <v>2384.7</v>
+        <v>2383.7</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G61">
         <v>0.95</v>
@@ -1927,10 +2005,10 @@
         <v>2244.84</v>
       </c>
       <c r="J61">
-        <v>1882.56</v>
+        <v>1736</v>
       </c>
       <c r="K61">
-        <v>60.92</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1938,25 +2016,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D62">
         <v>1012.57</v>
       </c>
       <c r="E62">
-        <v>2073</v>
+        <v>2046.43</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J62">
-        <v>1892.09</v>
+        <v>1747.94</v>
       </c>
       <c r="K62">
-        <v>61.23</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1964,25 +2042,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D63">
         <v>1156.95</v>
       </c>
       <c r="E63">
-        <v>1993.62</v>
+        <v>1973.34</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J63">
-        <v>1896.92</v>
+        <v>1756.29</v>
       </c>
       <c r="K63">
-        <v>61.33</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1990,13 +2068,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <v>2986.71</v>
       </c>
       <c r="D64">
         <v>984.3</v>
       </c>
+      <c r="E64">
+        <v>2002.41</v>
+      </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J64">
+        <v>1765.08</v>
+      </c>
+      <c r="K64">
+        <v>58.4</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2004,13 +2094,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>2487.29</v>
       </c>
       <c r="D65">
         <v>939.91</v>
       </c>
+      <c r="E65">
+        <v>1547.37</v>
+      </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J65">
+        <v>1757.57</v>
+      </c>
+      <c r="K65">
+        <v>58.53</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2018,13 +2120,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>1906.71</v>
       </c>
       <c r="D66">
         <v>1329.15</v>
       </c>
+      <c r="E66">
+        <v>577.5700000000001</v>
+      </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J66">
+        <v>1718.24</v>
+      </c>
+      <c r="K66">
+        <v>57.59</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2032,19 +2146,19 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D67">
         <v>1145.25</v>
       </c>
       <c r="E67">
-        <v>1940.32</v>
+        <v>1913.75</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G67">
         <v>0.89</v>
@@ -2056,10 +2170,10 @@
         <v>2243.13</v>
       </c>
       <c r="J67">
-        <v>1898.89</v>
+        <v>1724.54</v>
       </c>
       <c r="K67">
-        <v>61.4</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2067,25 +2181,25 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D68">
         <v>1013.65</v>
       </c>
       <c r="E68">
-        <v>2136.92</v>
+        <v>2116.63</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J68">
-        <v>1909.24</v>
+        <v>1736.8</v>
       </c>
       <c r="K68">
-        <v>61.68</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2093,13 +2207,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C69">
+        <v>2986.71</v>
       </c>
       <c r="D69">
         <v>1153.55</v>
       </c>
+      <c r="E69">
+        <v>1833.17</v>
+      </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>1739.72</v>
+      </c>
+      <c r="K69">
+        <v>58.16</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2107,13 +2233,25 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>2487.29</v>
       </c>
       <c r="D70">
         <v>1210.82</v>
       </c>
+      <c r="E70">
+        <v>1276.47</v>
+      </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J70">
+        <v>1726.09</v>
+      </c>
+      <c r="K70">
+        <v>57.96</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2121,13 +2259,25 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C71">
+        <v>1906.71</v>
       </c>
       <c r="D71">
         <v>1205.47</v>
       </c>
+      <c r="E71">
+        <v>701.24</v>
+      </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J71">
+        <v>1696.81</v>
+      </c>
+      <c r="K71">
+        <v>57.35</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2135,13 +2285,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>1550.35</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2149,19 +2299,19 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D73">
         <v>1263.06</v>
       </c>
       <c r="E73">
-        <v>1822.51</v>
+        <v>1795.94</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G73">
         <v>0.75</v>
@@ -2173,10 +2323,10 @@
         <v>1894.29</v>
       </c>
       <c r="J73">
-        <v>1905.63</v>
+        <v>1699.56</v>
       </c>
       <c r="K73">
-        <v>61.57</v>
+        <v>57.39</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2184,25 +2334,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D74">
         <v>1291.16</v>
       </c>
       <c r="E74">
-        <v>1859.41</v>
+        <v>1839.12</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J74">
-        <v>1903.78</v>
+        <v>1703.34</v>
       </c>
       <c r="K74">
-        <v>61.47</v>
+        <v>57.43</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2210,13 +2360,25 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C75">
+        <v>2986.71</v>
       </c>
       <c r="D75">
         <v>1246.13</v>
       </c>
+      <c r="E75">
+        <v>1740.59</v>
+      </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J75">
+        <v>1704.32</v>
+      </c>
+      <c r="K75">
+        <v>57.45</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2224,13 +2386,25 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>2487.29</v>
       </c>
       <c r="D76">
         <v>1053.47</v>
       </c>
+      <c r="E76">
+        <v>1433.82</v>
+      </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J76">
+        <v>1697.38</v>
+      </c>
+      <c r="K76">
+        <v>57.45</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2238,13 +2412,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C77">
+        <v>1906.71</v>
       </c>
       <c r="D77">
         <v>1175.38</v>
       </c>
+      <c r="E77">
+        <v>731.34</v>
+      </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J77">
+        <v>1673.23</v>
+      </c>
+      <c r="K77">
+        <v>56.98</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2252,13 +2438,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D78">
         <v>1286.14</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2266,19 +2452,19 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D79">
         <v>1454.29</v>
       </c>
       <c r="E79">
-        <v>1696.28</v>
+        <v>1675.99</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G79">
         <v>0.78</v>
@@ -2290,10 +2476,10 @@
         <v>1629.76</v>
       </c>
       <c r="J79">
-        <v>1895.8</v>
+        <v>1673.3</v>
       </c>
       <c r="K79">
-        <v>61.18</v>
+        <v>56.89</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2301,13 +2487,25 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C80">
+        <v>2986.71</v>
       </c>
       <c r="D80">
         <v>1345.51</v>
       </c>
+      <c r="E80">
+        <v>1641.2</v>
+      </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J80">
+        <v>1672.53</v>
+      </c>
+      <c r="K80">
+        <v>56.85</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2315,13 +2513,25 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>2487.29</v>
       </c>
       <c r="D81">
         <v>1456.01</v>
       </c>
+      <c r="E81">
+        <v>1031.28</v>
+      </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J81">
+        <v>1657.62</v>
+      </c>
+      <c r="K81">
+        <v>56.49</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2329,13 +2539,25 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C82">
+        <v>1906.71</v>
       </c>
       <c r="D82">
         <v>1871.51</v>
       </c>
+      <c r="E82">
+        <v>35.2</v>
+      </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J82">
+        <v>1620.75</v>
+      </c>
+      <c r="K82">
+        <v>55.25</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2343,13 +2565,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D83">
         <v>1924.77</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2357,13 +2579,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>2188.5</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2371,19 +2593,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D85">
         <v>1515.81</v>
       </c>
       <c r="E85">
-        <v>1634.76</v>
+        <v>1614.48</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G85">
         <v>1.03</v>
@@ -2395,10 +2617,10 @@
         <v>2154.49</v>
       </c>
       <c r="J85">
-        <v>1886.13</v>
+        <v>1620.61</v>
       </c>
       <c r="K85">
-        <v>60.83</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2406,13 +2628,25 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C86">
+        <v>2986.71</v>
       </c>
       <c r="D86">
         <v>1431.6</v>
       </c>
+      <c r="E86">
+        <v>1555.11</v>
+      </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J86">
+        <v>1619.18</v>
+      </c>
+      <c r="K86">
+        <v>55.1</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2420,13 +2654,25 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C87">
+        <v>2487.29</v>
       </c>
       <c r="D87">
         <v>1527.24</v>
       </c>
+      <c r="E87">
+        <v>960.05</v>
+      </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J87">
+        <v>1605.16</v>
+      </c>
+      <c r="K87">
+        <v>54.75</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2434,13 +2680,25 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C88">
+        <v>1906.71</v>
       </c>
       <c r="D88">
         <v>2023.69</v>
       </c>
+      <c r="E88">
+        <v>116.97</v>
+      </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J88">
+        <v>1574.16</v>
+      </c>
+      <c r="K88">
+        <v>53.73</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2448,13 +2706,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89">
         <v>2385.4</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2462,13 +2720,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <v>2067.4</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2476,13 +2734,19 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C91">
+        <v>2986.71</v>
       </c>
       <c r="D91">
         <v>1071.44</v>
       </c>
+      <c r="E91">
+        <v>1915.27</v>
+      </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2492,6 +2756,12 @@
       </c>
       <c r="I91">
         <v>2054.83</v>
+      </c>
+      <c r="J91">
+        <v>1581.12</v>
+      </c>
+      <c r="K91">
+        <v>53.95</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2499,13 +2769,25 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C92">
+        <v>2487.29</v>
       </c>
       <c r="D92">
         <v>1114.67</v>
       </c>
+      <c r="E92">
+        <v>1372.61</v>
+      </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J92">
+        <v>1576.95</v>
+      </c>
+      <c r="K92">
+        <v>53.97</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2513,13 +2795,25 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C93">
+        <v>1906.71</v>
       </c>
       <c r="D93">
         <v>1468.99</v>
       </c>
+      <c r="E93">
+        <v>437.73</v>
+      </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J93">
+        <v>1554.61</v>
+      </c>
+      <c r="K93">
+        <v>53.36</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2527,13 +2821,13 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <v>1434.28</v>
       </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2541,13 +2835,13 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D95">
         <v>1634.9</v>
       </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2555,13 +2849,256 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D96">
         <v>1966.02</v>
       </c>
       <c r="F96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97">
+        <v>2986.71</v>
+      </c>
+      <c r="D97">
+        <v>1341.71</v>
+      </c>
+      <c r="E97">
+        <v>1645</v>
+      </c>
+      <c r="F97" t="s">
+        <v>67</v>
+      </c>
+      <c r="H97">
+        <v>62.43</v>
+      </c>
+      <c r="I97">
+        <v>1966.81</v>
+      </c>
+      <c r="J97">
+        <v>1556.35</v>
+      </c>
+      <c r="K97">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98">
+        <v>2487.29</v>
+      </c>
+      <c r="D98">
+        <v>1330.51</v>
+      </c>
+      <c r="E98">
+        <v>1156.78</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+      <c r="J98">
+        <v>1548.81</v>
+      </c>
+      <c r="K98">
+        <v>53.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99">
+        <v>1906.71</v>
+      </c>
+      <c r="D99">
+        <v>1138.66</v>
+      </c>
+      <c r="E99">
+        <v>768.0599999999999</v>
+      </c>
+      <c r="F99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J99">
+        <v>1534.35</v>
+      </c>
+      <c r="K99">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100">
+        <v>1225.5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>1441.14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
         <v>65</v>
+      </c>
+      <c r="D102">
+        <v>1870.15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103">
+        <v>2487.29</v>
+      </c>
+      <c r="D103">
+        <v>1114.24</v>
+      </c>
+      <c r="E103">
+        <v>1373.04</v>
+      </c>
+      <c r="F103" t="s">
+        <v>67</v>
+      </c>
+      <c r="G103">
+        <v>1.27</v>
+      </c>
+      <c r="H103">
+        <v>64.73</v>
+      </c>
+      <c r="I103">
+        <v>1965.17</v>
+      </c>
+      <c r="J103">
+        <v>1531.42</v>
+      </c>
+      <c r="K103">
+        <v>53.06</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104">
+        <v>1906.71</v>
+      </c>
+      <c r="D104">
+        <v>1470.4</v>
+      </c>
+      <c r="E104">
+        <v>436.32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>67</v>
+      </c>
+      <c r="J104">
+        <v>1511.86</v>
+      </c>
+      <c r="K104">
+        <v>52.53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105">
+        <v>1434.34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106">
+        <v>1635.53</v>
+      </c>
+      <c r="F106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107">
+        <v>1968.27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108">
+        <v>2072.6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2202.86</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.9399999999999999</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1933.57</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1753.71</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1426.86</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1220.57</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>946.14</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>873.71</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>744.29</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>602.14</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>565.86</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>524.14</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>748.86</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>786.29</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>922</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1140.43</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1038.43</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>1007.43</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>973.4299999999999</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>894.5700000000001</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>846.4299999999999</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>733.14</v>
@@ -1042,7 +1051,7 @@
         <v>245.34</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>797.86</v>
@@ -1062,7 +1071,7 @@
         <v>136.34</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>766.4299999999999</v>
@@ -1082,7 +1091,7 @@
         <v>218.06</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>702.14</v>
@@ -1102,7 +1111,7 @@
         <v>307.73</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>714.29</v>
@@ -1122,7 +1131,7 @@
         <v>181.92</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>717.4299999999999</v>
@@ -1142,7 +1151,7 @@
         <v>168.99</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>821.5700000000001</v>
@@ -1162,7 +1171,7 @@
         <v>62.31</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>819</v>
@@ -1182,7 +1191,7 @@
         <v>19.27</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>994.86</v>
@@ -1202,7 +1211,7 @@
         <v>200.87</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1087.29</v>
@@ -1222,7 +1231,7 @@
         <v>278.71</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1466.29</v>
@@ -1242,7 +1251,7 @@
         <v>631.4400000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>1447.14</v>
@@ -1262,7 +1271,7 @@
         <v>630.24</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2150.29</v>
@@ -1282,7 +1291,7 @@
         <v>1306.53</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2383.14</v>
@@ -1302,7 +1311,7 @@
         <v>1512.18</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>2607.86</v>
@@ -1322,7 +1331,7 @@
         <v>1795.59</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2241.86</v>
@@ -1342,7 +1351,7 @@
         <v>1378.63</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>1378.63</v>
@@ -1356,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2605.43</v>
@@ -1368,7 +1377,7 @@
         <v>1702.58</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>1540.61</v>
@@ -1382,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>3148.14</v>
@@ -1394,7 +1403,7 @@
         <v>2167.62</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J39">
         <v>1749.61</v>
@@ -1408,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>3334.29</v>
@@ -1420,7 +1429,7 @@
         <v>2162.19</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J40">
         <v>1852.76</v>
@@ -1434,25 +1443,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D41">
         <v>1327.61</v>
       </c>
       <c r="E41">
-        <v>1731.39</v>
+        <v>1734.25</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J41">
-        <v>1828.48</v>
+        <v>1829.05</v>
       </c>
       <c r="K41">
-        <v>63.43</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1460,25 +1469,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D42">
         <v>1449.12</v>
       </c>
       <c r="E42">
-        <v>1681.16</v>
+        <v>1685.02</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J42">
-        <v>1803.93</v>
+        <v>1805.05</v>
       </c>
       <c r="K42">
-        <v>61.81</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1486,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2605.43</v>
@@ -1498,7 +1507,7 @@
         <v>1418.79</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43">
         <v>0.83</v>
@@ -1510,10 +1519,10 @@
         <v>1264.95</v>
       </c>
       <c r="J43">
-        <v>1748.91</v>
+        <v>1749.87</v>
       </c>
       <c r="K43">
-        <v>60.76</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1521,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>3148.14</v>
@@ -1533,13 +1542,13 @@
         <v>2064.8</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
-        <v>1788.4</v>
+        <v>1789.24</v>
       </c>
       <c r="K44">
-        <v>61.36</v>
+        <v>61.37</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1547,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>3334.29</v>
@@ -1559,13 +1568,13 @@
         <v>2218.54</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
-        <v>1836.19</v>
+        <v>1836.94</v>
       </c>
       <c r="K45">
-        <v>61.94</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1573,25 +1582,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D46">
         <v>1387.51</v>
       </c>
       <c r="E46">
-        <v>1671.49</v>
+        <v>1674.35</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J46">
-        <v>1819.72</v>
+        <v>1820.68</v>
       </c>
       <c r="K46">
-        <v>61.21</v>
+        <v>61.22</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1599,25 +1608,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D47">
         <v>1117.95</v>
       </c>
       <c r="E47">
-        <v>2012.34</v>
+        <v>2016.19</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J47">
-        <v>1837.23</v>
+        <v>1838.45</v>
       </c>
       <c r="K47">
-        <v>61.49</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1625,25 +1634,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D48">
         <v>916.12</v>
       </c>
       <c r="E48">
-        <v>2070.59</v>
+        <v>2074.45</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J48">
-        <v>1856.68</v>
+        <v>1858.12</v>
       </c>
       <c r="K48">
-        <v>62.14</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1651,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>3148.14</v>
@@ -1663,7 +1672,7 @@
         <v>1907.04</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G49">
         <v>0.97</v>
@@ -1675,10 +1684,10 @@
         <v>1828.75</v>
       </c>
       <c r="J49">
-        <v>1860.55</v>
+        <v>1861.88</v>
       </c>
       <c r="K49">
-        <v>62.02</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1686,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>3334.29</v>
@@ -1698,13 +1707,13 @@
         <v>1996.4</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J50">
-        <v>1870.25</v>
+        <v>1871.49</v>
       </c>
       <c r="K50">
-        <v>61.87</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1712,25 +1721,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D51">
         <v>1593.17</v>
       </c>
       <c r="E51">
-        <v>1465.83</v>
+        <v>1468.68</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>1843.29</v>
+        <v>1844.64</v>
       </c>
       <c r="K51">
-        <v>60.94</v>
+        <v>60.96</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1738,25 +1747,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D52">
         <v>1629.06</v>
       </c>
       <c r="E52">
-        <v>1501.23</v>
+        <v>1505.08</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>1821.91</v>
+        <v>1823.41</v>
       </c>
       <c r="K52">
-        <v>60.13</v>
+        <v>60.15</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1764,25 +1773,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D53">
         <v>1560.69</v>
       </c>
       <c r="E53">
-        <v>1426.02</v>
+        <v>1429.88</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J53">
-        <v>1798.63</v>
+        <v>1800.26</v>
       </c>
       <c r="K53">
-        <v>59.4</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1790,25 +1799,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D54">
         <v>1687.35</v>
       </c>
       <c r="E54">
-        <v>799.9299999999999</v>
+        <v>805.9299999999999</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J54">
-        <v>1743.14</v>
+        <v>1745.02</v>
       </c>
       <c r="K54">
-        <v>57.88</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1816,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>3334.29</v>
@@ -1828,7 +1837,7 @@
         <v>2288.79</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>1.06</v>
@@ -1840,10 +1849,10 @@
         <v>2482.74</v>
       </c>
       <c r="J55">
-        <v>1771.86</v>
+        <v>1773.64</v>
       </c>
       <c r="K55">
-        <v>58.45</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1851,25 +1860,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D56">
         <v>1124.3</v>
       </c>
       <c r="E56">
-        <v>1934.7</v>
+        <v>1937.56</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>1780</v>
+        <v>1781.84</v>
       </c>
       <c r="K56">
-        <v>58.69</v>
+        <v>58.72</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1877,25 +1886,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D57">
         <v>1318.35</v>
       </c>
       <c r="E57">
-        <v>1811.94</v>
+        <v>1815.79</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57">
-        <v>1781.52</v>
+        <v>1783.46</v>
       </c>
       <c r="K57">
-        <v>58.65</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1903,25 +1912,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D58">
         <v>920.03</v>
       </c>
       <c r="E58">
-        <v>2066.69</v>
+        <v>2070.55</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J58">
-        <v>1794.49</v>
+        <v>1796.51</v>
       </c>
       <c r="K58">
-        <v>59.13</v>
+        <v>59.16</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1929,25 +1938,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D59">
         <v>1273.53</v>
       </c>
       <c r="E59">
-        <v>1213.76</v>
+        <v>1219.76</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J59">
-        <v>1769.24</v>
+        <v>1771.43</v>
       </c>
       <c r="K59">
-        <v>58.68</v>
+        <v>58.72</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1955,25 +1964,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D60">
         <v>1582.87</v>
       </c>
       <c r="E60">
-        <v>323.84</v>
+        <v>267.55</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>1709.01</v>
+        <v>1708.77</v>
       </c>
       <c r="K60">
-        <v>56.94</v>
+        <v>56.87</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1981,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>3334.29</v>
@@ -1993,7 +2002,7 @@
         <v>2383.7</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G61">
         <v>0.95</v>
@@ -2005,10 +2014,10 @@
         <v>2244.84</v>
       </c>
       <c r="J61">
-        <v>1736</v>
+        <v>1735.77</v>
       </c>
       <c r="K61">
-        <v>57.53</v>
+        <v>57.46</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2016,25 +2025,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D62">
         <v>1012.57</v>
       </c>
       <c r="E62">
-        <v>2046.43</v>
+        <v>2049.29</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J62">
-        <v>1747.94</v>
+        <v>1747.82</v>
       </c>
       <c r="K62">
-        <v>57.89</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2042,25 +2051,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D63">
         <v>1156.95</v>
       </c>
       <c r="E63">
-        <v>1973.34</v>
+        <v>1977.2</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J63">
-        <v>1756.29</v>
+        <v>1756.32</v>
       </c>
       <c r="K63">
-        <v>58.08</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2068,25 +2077,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D64">
         <v>984.3</v>
       </c>
       <c r="E64">
-        <v>2002.41</v>
+        <v>2006.27</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J64">
-        <v>1765.08</v>
+        <v>1765.25</v>
       </c>
       <c r="K64">
-        <v>58.4</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2094,25 +2103,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D65">
         <v>939.91</v>
       </c>
       <c r="E65">
-        <v>1547.37</v>
+        <v>1553.37</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J65">
-        <v>1757.57</v>
+        <v>1757.94</v>
       </c>
       <c r="K65">
-        <v>58.53</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2120,25 +2129,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D66">
         <v>1329.15</v>
       </c>
       <c r="E66">
-        <v>577.5700000000001</v>
+        <v>521.28</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>1718.24</v>
+        <v>1716.72</v>
       </c>
       <c r="K66">
-        <v>57.59</v>
+        <v>57.47</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2146,19 +2155,19 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D67">
         <v>1145.25</v>
       </c>
       <c r="E67">
-        <v>1913.75</v>
+        <v>1916.61</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G67">
         <v>0.89</v>
@@ -2170,10 +2179,10 @@
         <v>2243.13</v>
       </c>
       <c r="J67">
-        <v>1724.54</v>
+        <v>1723.17</v>
       </c>
       <c r="K67">
-        <v>57.75</v>
+        <v>57.63</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2181,25 +2190,25 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D68">
         <v>1013.65</v>
       </c>
       <c r="E68">
-        <v>2116.63</v>
+        <v>2120.49</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J68">
-        <v>1736.8</v>
+        <v>1735.58</v>
       </c>
       <c r="K68">
-        <v>58.06</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2207,25 +2216,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D69">
         <v>1153.55</v>
       </c>
       <c r="E69">
-        <v>1833.17</v>
+        <v>1837.03</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J69">
-        <v>1739.72</v>
+        <v>1738.66</v>
       </c>
       <c r="K69">
-        <v>58.16</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2233,25 +2242,25 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D70">
         <v>1210.82</v>
       </c>
       <c r="E70">
-        <v>1276.47</v>
+        <v>1282.47</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J70">
-        <v>1726.09</v>
+        <v>1725.24</v>
       </c>
       <c r="K70">
-        <v>57.96</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2259,25 +2268,25 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D71">
         <v>1205.47</v>
       </c>
       <c r="E71">
-        <v>701.24</v>
+        <v>644.96</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J71">
-        <v>1696.81</v>
+        <v>1694.37</v>
       </c>
       <c r="K71">
-        <v>57.35</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2285,13 +2294,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D72">
         <v>1550.35</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2299,19 +2308,19 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D73">
         <v>1263.06</v>
       </c>
       <c r="E73">
-        <v>1795.94</v>
+        <v>1798.8</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G73">
         <v>0.75</v>
@@ -2323,10 +2332,10 @@
         <v>1894.29</v>
       </c>
       <c r="J73">
-        <v>1699.56</v>
+        <v>1697.27</v>
       </c>
       <c r="K73">
-        <v>57.39</v>
+        <v>57.24</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2334,25 +2343,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D74">
         <v>1291.16</v>
       </c>
       <c r="E74">
-        <v>1839.12</v>
+        <v>1842.98</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>1703.34</v>
+        <v>1701.21</v>
       </c>
       <c r="K74">
-        <v>57.43</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2360,25 +2369,25 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D75">
         <v>1246.13</v>
       </c>
       <c r="E75">
-        <v>1740.59</v>
+        <v>1744.44</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J75">
-        <v>1704.32</v>
+        <v>1702.35</v>
       </c>
       <c r="K75">
-        <v>57.45</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2386,25 +2395,25 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D76">
         <v>1053.47</v>
       </c>
       <c r="E76">
-        <v>1433.82</v>
+        <v>1439.82</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J76">
-        <v>1697.38</v>
+        <v>1695.62</v>
       </c>
       <c r="K76">
-        <v>57.45</v>
+        <v>57.32</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2412,25 +2421,25 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D77">
         <v>1175.38</v>
       </c>
       <c r="E77">
-        <v>731.34</v>
+        <v>675.05</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J77">
-        <v>1673.23</v>
+        <v>1670.1</v>
       </c>
       <c r="K77">
-        <v>56.98</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2438,13 +2447,13 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>1286.14</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2452,19 +2461,19 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D79">
         <v>1454.29</v>
       </c>
       <c r="E79">
-        <v>1675.99</v>
+        <v>1679.85</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G79">
         <v>0.78</v>
@@ -2476,10 +2485,10 @@
         <v>1629.76</v>
       </c>
       <c r="J79">
-        <v>1673.3</v>
+        <v>1670.34</v>
       </c>
       <c r="K79">
-        <v>56.89</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2487,25 +2496,25 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D80">
         <v>1345.51</v>
       </c>
       <c r="E80">
-        <v>1641.2</v>
+        <v>1645.06</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J80">
-        <v>1672.53</v>
+        <v>1669.74</v>
       </c>
       <c r="K80">
-        <v>56.85</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2513,25 +2522,25 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C81">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D81">
         <v>1456.01</v>
       </c>
       <c r="E81">
-        <v>1031.28</v>
+        <v>1037.28</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J81">
-        <v>1657.62</v>
+        <v>1655.03</v>
       </c>
       <c r="K81">
-        <v>56.49</v>
+        <v>56.33</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2539,25 +2548,25 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C82">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D82">
         <v>1871.51</v>
       </c>
       <c r="E82">
-        <v>35.2</v>
+        <v>21.08</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J82">
-        <v>1620.75</v>
+        <v>1617.9</v>
       </c>
       <c r="K82">
-        <v>55.25</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2565,13 +2574,13 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>1924.77</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2579,13 +2588,13 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D84">
         <v>2188.5</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2593,19 +2602,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D85">
         <v>1515.81</v>
       </c>
       <c r="E85">
-        <v>1614.48</v>
+        <v>1618.33</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G85">
         <v>1.03</v>
@@ -2617,10 +2626,10 @@
         <v>2154.49</v>
       </c>
       <c r="J85">
-        <v>1620.61</v>
+        <v>1617.91</v>
       </c>
       <c r="K85">
-        <v>55.16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2628,25 +2637,25 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D86">
         <v>1431.6</v>
       </c>
       <c r="E86">
-        <v>1555.11</v>
+        <v>1558.97</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J86">
-        <v>1619.18</v>
+        <v>1616.63</v>
       </c>
       <c r="K86">
-        <v>55.1</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2654,25 +2663,25 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C87">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D87">
         <v>1527.24</v>
       </c>
       <c r="E87">
-        <v>960.05</v>
+        <v>966.05</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J87">
-        <v>1605.16</v>
+        <v>1602.78</v>
       </c>
       <c r="K87">
-        <v>54.75</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2680,25 +2689,25 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C88">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D88">
         <v>2023.69</v>
       </c>
       <c r="E88">
-        <v>116.97</v>
+        <v>173.26</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J88">
-        <v>1574.16</v>
+        <v>1573</v>
       </c>
       <c r="K88">
-        <v>53.73</v>
+        <v>53.65</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2706,13 +2715,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89">
         <v>2385.4</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2720,13 +2729,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90">
         <v>2067.4</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2734,19 +2743,19 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D91">
         <v>1071.44</v>
       </c>
       <c r="E91">
-        <v>1915.27</v>
+        <v>1919.13</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2758,10 +2767,10 @@
         <v>2054.83</v>
       </c>
       <c r="J91">
-        <v>1581.12</v>
+        <v>1580.07</v>
       </c>
       <c r="K91">
-        <v>53.95</v>
+        <v>53.87</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2769,25 +2778,25 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D92">
         <v>1114.67</v>
       </c>
       <c r="E92">
-        <v>1372.61</v>
+        <v>1378.61</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J92">
-        <v>1576.95</v>
+        <v>1576.04</v>
       </c>
       <c r="K92">
-        <v>53.97</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2795,25 +2804,25 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C93">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D93">
         <v>1468.99</v>
       </c>
       <c r="E93">
-        <v>437.73</v>
+        <v>381.44</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J93">
-        <v>1554.61</v>
+        <v>1552.61</v>
       </c>
       <c r="K93">
-        <v>53.36</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2821,13 +2830,13 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <v>1434.28</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2835,13 +2844,13 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D95">
         <v>1634.9</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2849,13 +2858,13 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D96">
         <v>1966.02</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2863,19 +2872,19 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D97">
         <v>1341.71</v>
       </c>
       <c r="E97">
-        <v>1645</v>
+        <v>1648.86</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H97">
         <v>62.43</v>
@@ -2884,10 +2893,10 @@
         <v>1966.81</v>
       </c>
       <c r="J97">
-        <v>1556.35</v>
+        <v>1554.46</v>
       </c>
       <c r="K97">
-        <v>53.4</v>
+        <v>53.28</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2895,25 +2904,25 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D98">
         <v>1330.51</v>
       </c>
       <c r="E98">
-        <v>1156.78</v>
+        <v>1162.78</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J98">
-        <v>1548.81</v>
+        <v>1547.07</v>
       </c>
       <c r="K98">
-        <v>53.27</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2921,25 +2930,25 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C99">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D99">
         <v>1138.66</v>
       </c>
       <c r="E99">
-        <v>768.0599999999999</v>
+        <v>711.77</v>
       </c>
       <c r="F99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J99">
-        <v>1534.35</v>
+        <v>1531.6</v>
       </c>
       <c r="K99">
-        <v>53.03</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2947,13 +2956,13 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D100">
         <v>1225.5</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2961,13 +2970,13 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D101">
         <v>1441.14</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2975,13 +2984,13 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D102">
         <v>1870.15</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2989,19 +2998,19 @@
         <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C103">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D103">
         <v>1114.24</v>
       </c>
       <c r="E103">
-        <v>1373.04</v>
+        <v>1379.04</v>
       </c>
       <c r="F103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G103">
         <v>1.27</v>
@@ -3013,10 +3022,10 @@
         <v>1965.17</v>
       </c>
       <c r="J103">
-        <v>1531.42</v>
+        <v>1528.83</v>
       </c>
       <c r="K103">
-        <v>53.06</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -3024,25 +3033,25 @@
         <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D104">
         <v>1470.4</v>
       </c>
       <c r="E104">
-        <v>436.32</v>
+        <v>380.03</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J104">
-        <v>1511.86</v>
+        <v>1508.32</v>
       </c>
       <c r="K104">
-        <v>52.53</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -3050,13 +3059,13 @@
         <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>1434.34</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3064,13 +3073,13 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D106">
         <v>1635.53</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3078,13 +3087,13 @@
         <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D107">
         <v>1968.27</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3092,13 +3101,106 @@
         <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D108">
         <v>2072.6</v>
       </c>
       <c r="F108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109">
+        <v>1501.98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109">
+        <v>0.34</v>
+      </c>
+      <c r="H109">
+        <v>7.37</v>
+      </c>
+      <c r="I109">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110">
+        <v>2121.72</v>
+      </c>
+      <c r="F110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111">
+        <v>1932.05</v>
+      </c>
+      <c r="F111" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
         <v>67</v>
+      </c>
+      <c r="D112">
+        <v>2047.3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113">
+        <v>2045.83</v>
+      </c>
+      <c r="F113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114">
+        <v>2007.16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
